--- a/Automat_Excel_with_Pyton/store.xlsx
+++ b/Automat_Excel_with_Pyton/store.xlsx
@@ -1,123 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maozlahav/Documents/GitHub/CS50p/Automat_Excel_with_Pyton/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19F8311-A4AB-F54B-94A0-A0D8E7BA3B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="991" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sales 2018" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="Maoz" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fitness Band</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VR Headset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headphones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Console</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video Projector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Total Units</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Smart Watch</t>
+  </si>
+  <si>
+    <t>Fitness Band</t>
+  </si>
+  <si>
+    <t>VR Headset</t>
+  </si>
+  <si>
+    <t>E-Reader</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Game Console</t>
+  </si>
+  <si>
+    <t>Video Projector</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,31 +123,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Veranda"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Veranda"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -165,7 +146,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -193,7 +174,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -201,65 +182,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -318,30 +256,326 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="16.8724489795918"/>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="16.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -358,161 +592,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>400</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>800</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>150</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>100</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>300</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>100</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>80</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>80</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>600</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>700</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>800</v>
       </c>
       <c r="E11" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
@@ -520,24 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="4" width="14.1734693877551"/>
+    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="4" customWidth="1"/>
+    <col min="3" max="1025" width="14.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -545,109 +775,120 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>30000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>26000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>32000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>28000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>24000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>32000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>34000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>36000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>38000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>39000</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>40000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>37000</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>